--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A9B20C-1067-4ABA-B068-18D1A92314D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D85AD7-E1B7-4E02-8D65-3BA837F28C07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Datum</t>
   </si>
@@ -122,6 +122,18 @@
   <si>
     <t>Team Kennenlernen + Terminfindung</t>
   </si>
+  <si>
+    <t>Init frontend &amp; project</t>
+  </si>
+  <si>
+    <t>Schreiben von Issues</t>
+  </si>
+  <si>
+    <t>Proseminar</t>
+  </si>
+  <si>
+    <t>Issues im Team besprechen</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,6 +242,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -544,20 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1002"/>
+  <dimension ref="A1:D1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
     <col min="4" max="4" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -688,24 +701,60 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="9">
+        <v>44277</v>
+      </c>
+      <c r="B10" s="10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="8">
+        <v>44279</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="8">
+        <v>44280</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="8">
+        <v>44282</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8"/>
@@ -5648,7 +5697,17 @@
       <c r="D1001" s="3"/>
     </row>
     <row r="1002" spans="1:4">
-      <c r="A1002" s="2"/>
+      <c r="A1002" s="8"/>
+      <c r="B1002" s="7"/>
+      <c r="D1002" s="3"/>
+    </row>
+    <row r="1003" spans="1:4">
+      <c r="A1003" s="8"/>
+      <c r="B1003" s="7"/>
+      <c r="D1003" s="3"/>
+    </row>
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5660,7 +5719,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1001</xm:sqref>
+          <xm:sqref>C2:C10 C13:C1003</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D85AD7-E1B7-4E02-8D65-3BA837F28C07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE8888-E05D-4062-A350-344DD311533D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Issues im Team besprechen</t>
+  </si>
+  <si>
+    <t>Frontend extension</t>
+  </si>
+  <si>
+    <t>Besprechung</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -757,14 +763,32 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="8">
+        <v>44283</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCE8888-E05D-4062-A350-344DD311533D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B18CC1-8FDC-4C58-8C66-BD4F6EB09FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Besprechung</t>
+  </si>
+  <si>
+    <t>Navbar</t>
+  </si>
+  <si>
+    <t>Navbar / Footer / Error Pages</t>
+  </si>
+  <si>
+    <t>Abstimmung Konzept / Status</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -791,19 +800,46 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="8">
+        <v>44257</v>
+      </c>
+      <c r="B16" s="7">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="8">
+        <v>44258</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="8">
+        <v>44259</v>
+      </c>
+      <c r="B18" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8"/>
@@ -5743,7 +5779,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C1003</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1003</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B18CC1-8FDC-4C58-8C66-BD4F6EB09FA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FA9F3-99BB-4BE4-A84B-B359660E4BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Abstimmung Konzept / Status</t>
+  </si>
+  <si>
+    <t>Orderstruktur / Konzept</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -801,7 +804,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8">
-        <v>44257</v>
+        <v>44288</v>
       </c>
       <c r="B16" s="7">
         <v>9.0277777777777776E-2</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8">
-        <v>44258</v>
+        <v>44289</v>
       </c>
       <c r="B17" s="7">
         <v>8.3333333333333329E-2</v>
@@ -829,7 +832,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8">
-        <v>44259</v>
+        <v>44289</v>
       </c>
       <c r="B18" s="7">
         <v>8.3333333333333329E-2</v>
@@ -842,9 +845,18 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="8">
+        <v>44290</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FA9F3-99BB-4BE4-A84B-B359660E4BD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E20889-11C8-4332-B9CA-A707AAC0EC69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Orderstruktur / Konzept</t>
+  </si>
+  <si>
+    <t>Dokumentation der Routen</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -859,9 +862,18 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="8">
+        <v>44293</v>
+      </c>
+      <c r="B20" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E20889-11C8-4332-B9CA-A707AAC0EC69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAC6A9-A1C2-4DC7-9198-0E729BD2E6D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -153,7 +153,13 @@
     <t>Orderstruktur / Konzept</t>
   </si>
   <si>
-    <t>Dokumentation der Routen</t>
+    <t>Planung der Routen</t>
+  </si>
+  <si>
+    <t>Planung Routen/WS, Dokumentation</t>
+  </si>
+  <si>
+    <t>Dokumentation Routen / WS</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -876,14 +882,32 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="8">
+        <v>44294</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="8">
+        <v>44295</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAC6A9-A1C2-4DC7-9198-0E729BD2E6D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D220044F-5475-4A3A-8948-7826B46AD602}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Dokumentation Routen / WS</t>
+  </si>
+  <si>
+    <t>Realisierung DB Setup, DB Struktur, REST Implementierung, WS Implementierung</t>
+  </si>
+  <si>
+    <t>Statusupdate für PS</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -598,7 +604,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
+    <col min="4" max="4" width="75.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
@@ -910,14 +916,32 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="8">
+        <v>44297</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="8">
+        <v>44298</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D220044F-5475-4A3A-8948-7826B46AD602}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507F6B2-923C-4580-89DF-07D529C1A383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Statusupdate für PS</t>
+  </si>
+  <si>
+    <t>Websocket Setup / Debug Tool / Websocket Howto</t>
   </si>
 </sst>
 </file>
@@ -944,9 +947,18 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="8">
+        <v>44301</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D507F6B2-923C-4580-89DF-07D529C1A383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CC7D43-C5B2-4744-B672-74E3AB943A22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Websocket Setup / Debug Tool / Websocket Howto</t>
+  </si>
+  <si>
+    <t>User Authentication Debuggung / Implementierung / Tests</t>
+  </si>
+  <si>
+    <t>Websocket Finalisierung / Debug Tool / Tests</t>
   </si>
 </sst>
 </file>
@@ -593,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1004"/>
+  <dimension ref="A1:D1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -961,24 +967,60 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B27" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="8">
+        <v>44303</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="8">
+        <v>44294</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8"/>
@@ -5851,7 +5893,12 @@
       <c r="D1003" s="3"/>
     </row>
     <row r="1004" spans="1:4">
-      <c r="A1004" s="2"/>
+      <c r="A1004" s="8"/>
+      <c r="B1004" s="7"/>
+      <c r="D1004" s="3"/>
+    </row>
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5863,7 +5910,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1003</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1004</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CC7D43-C5B2-4744-B672-74E3AB943A22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770A8E6-044F-4137-B9F6-6D3ED26E1EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -175,6 +175,24 @@
   </si>
   <si>
     <t>Websocket Finalisierung / Debug Tool / Tests</t>
+  </si>
+  <si>
+    <t>Bugfix Unittests</t>
+  </si>
+  <si>
+    <t>Abstimmung Konzept / Status / Situation Bernd</t>
+  </si>
+  <si>
+    <t>Abstimmung bzgl. Websockets mit Martin</t>
+  </si>
+  <si>
+    <t>Bugfix Testdata Nicolas</t>
+  </si>
+  <si>
+    <t>Bugfix Terms/Topics Nicolas / Merge Review</t>
+  </si>
+  <si>
+    <t>Responsestatuscodes / Merge Request Review / Git Release</t>
   </si>
 </sst>
 </file>
@@ -599,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1005"/>
+  <dimension ref="A1:D1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1010,7 +1028,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8">
-        <v>44294</v>
+        <v>44304</v>
       </c>
       <c r="B29" s="7">
         <v>0.13541666666666666</v>
@@ -1023,39 +1041,102 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="8">
+        <v>44305</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="8">
+        <v>44306</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="8">
+        <v>44308</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="D34" s="3"/>
+      <c r="A34" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B34" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="8">
+        <v>44309</v>
+      </c>
+      <c r="B35" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B36" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8"/>
@@ -5898,7 +5979,22 @@
       <c r="D1004" s="3"/>
     </row>
     <row r="1005" spans="1:4">
-      <c r="A1005" s="2"/>
+      <c r="A1005" s="8"/>
+      <c r="B1005" s="7"/>
+      <c r="D1005" s="3"/>
+    </row>
+    <row r="1006" spans="1:4">
+      <c r="A1006" s="8"/>
+      <c r="B1006" s="7"/>
+      <c r="D1006" s="3"/>
+    </row>
+    <row r="1007" spans="1:4">
+      <c r="A1007" s="8"/>
+      <c r="B1007" s="7"/>
+      <c r="D1007" s="3"/>
+    </row>
+    <row r="1008" spans="1:4">
+      <c r="A1008" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5910,7 +6006,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1004</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1007</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770A8E6-044F-4137-B9F6-6D3ED26E1EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1240CB-C241-4B91-B00B-A82F3FD8154E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>Responsestatuscodes / Merge Request Review / Git Release</t>
+  </si>
+  <si>
+    <t>Dockerimage</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1139,14 +1142,32 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-      <c r="D37" s="3"/>
+      <c r="A37" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B37" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1240CB-C241-4B91-B00B-A82F3FD8154E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6D876-5E86-4CF0-8FC7-47F495732A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>Dockerimage</t>
+  </si>
+  <si>
+    <t>Abstimmung</t>
+  </si>
+  <si>
+    <t>Dockerimage / Dokumentation</t>
+  </si>
+  <si>
+    <t>Route Auth Frontend</t>
+  </si>
+  <si>
+    <t>API Teams</t>
+  </si>
+  <si>
+    <t>API Teams &amp; Tests</t>
+  </si>
+  <si>
+    <t>Pair-Debugging  / Abstimmung</t>
   </si>
 </sst>
 </file>
@@ -623,10 +641,10 @@
   <dimension ref="A1:D1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1170,44 +1188,116 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B39" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="8">
+        <v>44312</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B41" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B42" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="8">
+        <v>44316</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="8">
+        <v>44287</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="8">
+        <v>44288</v>
+      </c>
+      <c r="B46" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6D876-5E86-4CF0-8FC7-47F495732A2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C5EC5-47B4-460A-8D4E-3BFB44B957FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>Pair-Debugging  / Abstimmung</t>
+  </si>
+  <si>
+    <t>Abstimmung Nicolas (Gameflow)</t>
+  </si>
+  <si>
+    <t>Abstimmung Neuner (Rooms)</t>
+  </si>
+  <si>
+    <t>In-Memory Teams, Unit Tests</t>
   </si>
 </sst>
 </file>
@@ -638,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1008"/>
+  <dimension ref="A1:D1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1300,24 +1309,60 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="8">
+        <v>44289</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="8">
+        <v>44291</v>
+      </c>
+      <c r="B48" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="8">
+        <v>44292</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="8">
+        <v>44293</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8"/>
@@ -6105,7 +6150,12 @@
       <c r="D1007" s="3"/>
     </row>
     <row r="1008" spans="1:4">
-      <c r="A1008" s="2"/>
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="7"/>
+      <c r="D1008" s="3"/>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6117,7 +6167,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1007</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1008</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C5EC5-47B4-460A-8D4E-3BFB44B957FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3091232-1D85-48FE-A6C7-0302D23A395F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>Datum</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>In-Memory Teams, Unit Tests</t>
+  </si>
+  <si>
+    <t>Testabdeckung</t>
+  </si>
+  <si>
+    <t>In-Memory Teams, Points API (In-Memory Punkte bestätigen / ablehnen)</t>
+  </si>
+  <si>
+    <t>Abstimmung Beyer, Neuner, Nicolas (Rooms, Gameflow)</t>
   </si>
 </sst>
 </file>
@@ -647,13 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1009"/>
+  <dimension ref="A1:D1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1268,7 +1277,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B44" s="7">
         <v>0.125</v>
@@ -1282,7 +1291,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8">
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="B45" s="7">
         <v>0.16666666666666666</v>
@@ -1296,7 +1305,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8">
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="B46" s="7">
         <v>4.1666666666666664E-2</v>
@@ -1310,7 +1319,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8">
-        <v>44289</v>
+        <v>44319</v>
       </c>
       <c r="B47" s="7">
         <v>2.0833333333333332E-2</v>
@@ -1324,7 +1333,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="B48" s="7">
         <v>2.0833333333333332E-2</v>
@@ -1338,7 +1347,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8">
-        <v>44292</v>
+        <v>44322</v>
       </c>
       <c r="B49" s="7">
         <v>2.0833333333333332E-2</v>
@@ -1352,7 +1361,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="B50" s="7">
         <v>0.125</v>
@@ -1365,19 +1374,46 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8"/>
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B52" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B53" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8"/>
@@ -6150,12 +6186,7 @@
       <c r="D1007" s="3"/>
     </row>
     <row r="1008" spans="1:4">
-      <c r="A1008" s="8"/>
-      <c r="B1008" s="7"/>
-      <c r="D1008" s="3"/>
-    </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009" s="2"/>
+      <c r="A1008" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6167,7 +6198,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1008</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1007</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3091232-1D85-48FE-A6C7-0302D23A395F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9075463F-A46F-4CB9-9A22-7350F091183E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Abstimmung Beyer, Neuner, Nicolas (Rooms, Gameflow)</t>
+  </si>
+  <si>
+    <t>Abstimmung Beyer / Nicolas (Gameflow)</t>
+  </si>
+  <si>
+    <t>Erweiterung Punkte / Websockets / Git Release</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1416,14 +1422,32 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="8"/>
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B54" s="7">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="8"/>
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="8">
+        <v>44325</v>
+      </c>
+      <c r="B55" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9075463F-A46F-4CB9-9A22-7350F091183E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090384D9-9DCC-4CFD-9B80-19AD40BDD8F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -238,6 +238,27 @@
   </si>
   <si>
     <t>Erweiterung Punkte / Websockets / Git Release</t>
+  </si>
+  <si>
+    <t>API Gameplay</t>
+  </si>
+  <si>
+    <t>API Gameplay / Rooms Austausch</t>
+  </si>
+  <si>
+    <t>Workflow / Rooms</t>
+  </si>
+  <si>
+    <t>Erweiterung In Memory Virtual Users -&gt; Gameplay</t>
+  </si>
+  <si>
+    <t>API Anpassung (Change Column Length, …)</t>
+  </si>
+  <si>
+    <t>API Anpassung, Bug Fixes, Frontend Implementierung, Docker Fix</t>
+  </si>
+  <si>
+    <t>Git Release</t>
   </si>
 </sst>
 </file>
@@ -662,13 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1008"/>
+  <dimension ref="A1:D1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1450,44 +1471,116 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8"/>
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B56" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B59" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="8">
+        <v>44328</v>
+      </c>
+      <c r="B61" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B62" s="7">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="8"/>
@@ -6210,7 +6303,12 @@
       <c r="D1007" s="3"/>
     </row>
     <row r="1008" spans="1:4">
-      <c r="A1008" s="2"/>
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="7"/>
+      <c r="D1008" s="3"/>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6222,7 +6320,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1007</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1008</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090384D9-9DCC-4CFD-9B80-19AD40BDD8F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AFCA1E-B389-4010-B9EF-7CFCBCADA036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Git Release</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Git Release / Finale Abstimmung</t>
+  </si>
+  <si>
+    <t>Fix Unittests</t>
   </si>
 </sst>
 </file>
@@ -339,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -369,6 +378,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -683,13 +693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:D1009"/>
+  <dimension ref="A1:E1010"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1038,30 +1048,30 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8">
-        <v>44301</v>
+        <v>44298</v>
       </c>
       <c r="B25" s="7">
-        <v>0.19791666666666666</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B26" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1069,41 +1079,41 @@
         <v>44302</v>
       </c>
       <c r="B27" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="8">
-        <v>44303</v>
+        <v>44302</v>
       </c>
       <c r="B28" s="7">
-        <v>0.20833333333333334</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B29" s="7">
-        <v>0.13541666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1111,69 +1121,69 @@
         <v>44304</v>
       </c>
       <c r="B30" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B31" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8">
-        <v>44306</v>
+        <v>44305</v>
       </c>
       <c r="B32" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8">
-        <v>44308</v>
+        <v>44306</v>
       </c>
       <c r="B33" s="7">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>11</v>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8">
-        <v>44309</v>
+        <v>44308</v>
       </c>
       <c r="B34" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1181,23 +1191,23 @@
         <v>44309</v>
       </c>
       <c r="B35" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8">
-        <v>44310</v>
+        <v>44309</v>
       </c>
       <c r="B36" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1206,16 +1216,16 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8">
-        <v>44311</v>
+        <v>44310</v>
       </c>
       <c r="B37" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1223,27 +1233,27 @@
         <v>44311</v>
       </c>
       <c r="B38" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8">
-        <v>44312</v>
+        <v>44311</v>
       </c>
       <c r="B39" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1251,27 +1261,27 @@
         <v>44312</v>
       </c>
       <c r="B40" s="7">
-        <v>1.3888888888888888E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="B41" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1285,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1293,41 +1303,41 @@
         <v>44316</v>
       </c>
       <c r="B43" s="7">
-        <v>1.3888888888888888E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B44" s="7">
-        <v>0.125</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B45" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1335,32 +1345,32 @@
         <v>44318</v>
       </c>
       <c r="B46" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8">
-        <v>44319</v>
+        <v>44318</v>
       </c>
       <c r="B47" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8">
-        <v>44321</v>
+        <v>44319</v>
       </c>
       <c r="B48" s="7">
         <v>2.0833333333333332E-2</v>
@@ -1369,12 +1379,12 @@
         <v>14</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8">
-        <v>44322</v>
+        <v>44321</v>
       </c>
       <c r="B49" s="7">
         <v>2.0833333333333332E-2</v>
@@ -1383,35 +1393,35 @@
         <v>14</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8">
-        <v>44323</v>
+        <v>44322</v>
       </c>
       <c r="B50" s="7">
-        <v>0.125</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B51" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1419,13 +1429,13 @@
         <v>44324</v>
       </c>
       <c r="B52" s="7">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1433,27 +1443,27 @@
         <v>44324</v>
       </c>
       <c r="B53" s="7">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="C53" t="s">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8">
-        <v>44325</v>
+        <v>44324</v>
       </c>
       <c r="B54" s="7">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>14</v>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1461,27 +1471,27 @@
         <v>44325</v>
       </c>
       <c r="B55" s="7">
-        <v>9.375E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B56" s="7">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1489,13 +1499,13 @@
         <v>44326</v>
       </c>
       <c r="B57" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1506,24 +1516,24 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="8">
-        <v>44327</v>
+        <v>44326</v>
       </c>
       <c r="B59" s="7">
-        <v>6.25E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1531,41 +1541,41 @@
         <v>44327</v>
       </c>
       <c r="B60" s="7">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="8">
-        <v>44328</v>
+        <v>44327</v>
       </c>
       <c r="B61" s="7">
-        <v>0.14583333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="8">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B62" s="7">
-        <v>0.31944444444444448</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1573,96 +1583,133 @@
         <v>44329</v>
       </c>
       <c r="B63" s="7">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8">
+        <v>44329</v>
+      </c>
+      <c r="B64" s="7">
         <v>1.3888888888888888E-2</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="7"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4">
+    <row r="65" spans="1:5">
+      <c r="A65" s="8">
+        <v>44330</v>
+      </c>
+      <c r="B65" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8">
+        <v>44331</v>
+      </c>
+      <c r="B66" s="7">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8">
+        <v>44332</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="8"/>
       <c r="B68" s="7"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" s="8"/>
       <c r="B69" s="7"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" s="8"/>
       <c r="B70" s="7"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:5">
       <c r="A71" s="8"/>
       <c r="B71" s="7"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:5">
       <c r="A72" s="8"/>
       <c r="B72" s="7"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:5">
       <c r="A73" s="8"/>
       <c r="B73" s="7"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:5">
       <c r="A74" s="8"/>
       <c r="B74" s="7"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:5">
       <c r="A75" s="8"/>
       <c r="B75" s="7"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:5">
       <c r="A76" s="8"/>
       <c r="B76" s="7"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:5">
       <c r="A77" s="8"/>
       <c r="B77" s="7"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:5">
       <c r="A78" s="8"/>
       <c r="B78" s="7"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:5">
       <c r="A79" s="8"/>
       <c r="B79" s="7"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:5">
       <c r="A80" s="8"/>
       <c r="B80" s="7"/>
       <c r="D80" s="3"/>
@@ -6307,8 +6354,13 @@
       <c r="B1008" s="7"/>
       <c r="D1008" s="3"/>
     </row>
-    <row r="1009" spans="1:1">
-      <c r="A1009" s="2"/>
+    <row r="1009" spans="1:4">
+      <c r="A1009" s="8"/>
+      <c r="B1009" s="7"/>
+      <c r="D1009" s="3"/>
+    </row>
+    <row r="1010" spans="1:4">
+      <c r="A1010" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6320,7 +6372,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1008</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1009</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AFCA1E-B389-4010-B9EF-7CFCBCADA036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431AAD1E-10A0-4BA9-B9F0-F5BBF61976C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
   <si>
     <t>Datum</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Abstimmung</t>
   </si>
   <si>
-    <t>Dockerimage / Dokumentation</t>
-  </si>
-  <si>
     <t>Route Auth Frontend</t>
   </si>
   <si>
@@ -268,6 +265,24 @@
   </si>
   <si>
     <t>Fix Unittests</t>
+  </si>
+  <si>
+    <t>Feedback / Abnametest Statement</t>
+  </si>
+  <si>
+    <t>Feedback Gruppe 4 / Abnahmetest</t>
+  </si>
+  <si>
+    <t>Feedback Gruppe 4 / Abnahmetest / Abstimmung</t>
+  </si>
+  <si>
+    <t>Topic Nicolas</t>
+  </si>
+  <si>
+    <t>Dockerimage Bugfixes / Dokumentation</t>
+  </si>
+  <si>
+    <t>WS Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -693,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:E1010"/>
+  <dimension ref="A1:E1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -710,7 +725,7 @@
     <col min="4" max="4" width="75.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="31.5">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="31.5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -724,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="9">
         <v>44256</v>
       </c>
@@ -737,8 +752,9 @@
       <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="9">
         <v>44258</v>
       </c>
@@ -751,8 +767,9 @@
       <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="9">
         <v>44262</v>
       </c>
@@ -765,8 +782,9 @@
       <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="9">
         <v>44263</v>
       </c>
@@ -779,8 +797,9 @@
       <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="9">
         <v>44267</v>
       </c>
@@ -793,8 +812,9 @@
       <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="9">
         <v>44269.3</v>
       </c>
@@ -807,8 +827,9 @@
       <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="9">
         <v>44271</v>
       </c>
@@ -821,8 +842,9 @@
       <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="9">
         <v>44273</v>
       </c>
@@ -835,8 +857,9 @@
       <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="9">
         <v>44277</v>
       </c>
@@ -849,13 +872,14 @@
       <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="8">
         <v>44279</v>
       </c>
       <c r="B11" s="7">
-        <v>0.1111111111111111</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -863,8 +887,9 @@
       <c r="D11" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="8">
         <v>44280</v>
       </c>
@@ -877,8 +902,9 @@
       <c r="D12" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="8">
         <v>44282</v>
       </c>
@@ -891,8 +917,9 @@
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="8">
         <v>44283</v>
       </c>
@@ -905,8 +932,9 @@
       <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="8">
         <v>44283</v>
       </c>
@@ -919,8 +947,9 @@
       <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="8">
         <v>44288</v>
       </c>
@@ -933,8 +962,9 @@
       <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="8">
         <v>44289</v>
       </c>
@@ -947,8 +977,9 @@
       <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="8">
         <v>44289</v>
       </c>
@@ -961,8 +992,9 @@
       <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="8">
         <v>44290</v>
       </c>
@@ -975,8 +1007,9 @@
       <c r="D19" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="8">
         <v>44293</v>
       </c>
@@ -989,8 +1022,9 @@
       <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="8">
         <v>44294</v>
       </c>
@@ -1003,8 +1037,9 @@
       <c r="D21" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="8">
         <v>44295</v>
       </c>
@@ -1017,8 +1052,9 @@
       <c r="D22" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="8">
         <v>44297</v>
       </c>
@@ -1031,8 +1067,9 @@
       <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="8">
         <v>44298</v>
       </c>
@@ -1045,8 +1082,9 @@
       <c r="D24" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="8">
         <v>44298</v>
       </c>
@@ -1059,8 +1097,9 @@
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="8">
         <v>44301</v>
       </c>
@@ -1073,164 +1112,176 @@
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="8">
-        <v>44302</v>
+        <v>44301</v>
       </c>
       <c r="B27" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="8">
         <v>44302</v>
       </c>
       <c r="B28" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8">
+        <v>44302</v>
+      </c>
+      <c r="B29" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="8">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8">
         <v>44303</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B30" s="7">
         <v>0.20833333333333334</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="8">
-        <v>44304</v>
-      </c>
-      <c r="B30" s="7">
-        <v>0.13541666666666666</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="8">
-        <v>44304</v>
+        <v>44303</v>
       </c>
       <c r="B31" s="7">
-        <v>0.16666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>76</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="8">
-        <v>44305</v>
+        <v>44304</v>
       </c>
       <c r="B32" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8">
+        <v>44304</v>
+      </c>
+      <c r="B33" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8">
+        <v>44305</v>
+      </c>
+      <c r="B34" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="8">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8">
         <v>44306</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B35" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8">
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8">
         <v>44308</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B36" s="7">
         <v>3.4722222222222224E-2</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="8">
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8">
         <v>44309</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B37" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8">
         <v>44309</v>
-      </c>
-      <c r="B36" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="8">
-        <v>44310</v>
-      </c>
-      <c r="B37" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="8">
-        <v>44311</v>
       </c>
       <c r="B38" s="7">
         <v>8.3333333333333329E-2</v>
@@ -1239,166 +1290,178 @@
         <v>5</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8">
+        <v>44310</v>
+      </c>
+      <c r="B39" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8">
+        <v>44311</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="8">
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8">
         <v>44311</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B41" s="7">
         <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8">
-        <v>44312</v>
-      </c>
-      <c r="B40" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="8">
-        <v>44312</v>
-      </c>
-      <c r="B41" s="7">
-        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="8">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="B42" s="7">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>4</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="8">
-        <v>44316</v>
+        <v>44312</v>
       </c>
       <c r="B43" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="8">
         <v>44316</v>
       </c>
       <c r="B44" s="7">
-        <v>1.3888888888888888E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>77</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="8">
-        <v>44317</v>
+        <v>44316</v>
       </c>
       <c r="B45" s="7">
-        <v>0.125</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="8">
-        <v>44318</v>
+        <v>44316</v>
       </c>
       <c r="B46" s="7">
-        <v>0.16666666666666666</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="8">
-        <v>44318</v>
+        <v>44317</v>
       </c>
       <c r="B47" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8">
+        <v>44318</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8">
         <v>44319</v>
-      </c>
-      <c r="B48" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8">
-        <v>44321</v>
-      </c>
-      <c r="B49" s="7">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8">
-        <v>44322</v>
       </c>
       <c r="B50" s="7">
         <v>2.0833333333333332E-2</v>
@@ -1407,40 +1470,43 @@
         <v>14</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>50</v>
+      </c>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="8">
-        <v>44323</v>
+        <v>44321</v>
       </c>
       <c r="B51" s="7">
-        <v>0.125</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="8">
-        <v>44324</v>
+        <v>44322</v>
       </c>
       <c r="B52" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="8">
-        <v>44324</v>
+        <v>44323</v>
       </c>
       <c r="B53" s="7">
         <v>0.16666666666666666</v>
@@ -1449,124 +1515,133 @@
         <v>5</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="8">
         <v>44324</v>
       </c>
       <c r="B54" s="7">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="C54" t="s">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B55" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8">
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8">
+        <v>44324</v>
+      </c>
+      <c r="B56" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8">
         <v>44325</v>
       </c>
-      <c r="B55" s="7">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="B57" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8">
+      <c r="D57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8">
         <v>44325</v>
       </c>
-      <c r="B56" s="7">
-        <v>9.375E-2</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8">
-        <v>44326</v>
-      </c>
-      <c r="B57" s="7">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8">
-        <v>44326</v>
-      </c>
       <c r="B58" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>62</v>
+      </c>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="8">
         <v>44326</v>
       </c>
       <c r="B59" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B60" s="7">
         <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8">
-        <v>44327</v>
-      </c>
-      <c r="B60" s="7">
-        <v>6.25E-2</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B61" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="8">
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8">
         <v>44327</v>
-      </c>
-      <c r="B61" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="8">
-        <v>44328</v>
       </c>
       <c r="B62" s="7">
         <v>0.14583333333333334</v>
@@ -1575,119 +1650,204 @@
         <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>64</v>
+      </c>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="8">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="B63" s="7">
-        <v>0.31944444444444448</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="8">
-        <v>44329</v>
+        <v>44327</v>
       </c>
       <c r="B64" s="7">
-        <v>1.3888888888888888E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="B65" s="7">
-        <v>0.125</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8">
-        <v>44331</v>
+        <v>44329</v>
       </c>
       <c r="B66" s="7">
-        <v>1.7361111111111112E-2</v>
+        <v>0.31944444444444448</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E66" s="15"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8">
-        <v>44332</v>
+        <v>44329</v>
       </c>
       <c r="B67" s="7">
-        <v>1.3888888888888888E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="8">
+        <v>44330</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="15"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="8">
+        <v>44331</v>
+      </c>
+      <c r="B69" s="7">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="8"/>
-      <c r="B68" s="7"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8"/>
-      <c r="B69" s="7"/>
-      <c r="D69" s="3"/>
+      <c r="E69" s="15"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="8"/>
-      <c r="B70" s="7"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="8">
+        <v>44332</v>
+      </c>
+      <c r="B70" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="8"/>
-      <c r="B71" s="7"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="8">
+        <v>44332</v>
+      </c>
+      <c r="B71" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="15"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="8"/>
-      <c r="B72" s="7"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="8">
+        <v>44334</v>
+      </c>
+      <c r="B72" s="7">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="15"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="8"/>
-      <c r="B73" s="7"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="8">
+        <v>44335</v>
+      </c>
+      <c r="B73" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="15"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="8"/>
-      <c r="B74" s="7"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="8">
+        <v>44341</v>
+      </c>
+      <c r="B74" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="15"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="8"/>
-      <c r="B75" s="7"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="8">
+        <v>44344</v>
+      </c>
+      <c r="B75" s="7">
+        <v>9.375E-2</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8"/>
@@ -6360,7 +6520,37 @@
       <c r="D1009" s="3"/>
     </row>
     <row r="1010" spans="1:4">
-      <c r="A1010" s="2"/>
+      <c r="A1010" s="8"/>
+      <c r="B1010" s="7"/>
+      <c r="D1010" s="3"/>
+    </row>
+    <row r="1011" spans="1:4">
+      <c r="A1011" s="8"/>
+      <c r="B1011" s="7"/>
+      <c r="D1011" s="3"/>
+    </row>
+    <row r="1012" spans="1:4">
+      <c r="A1012" s="8"/>
+      <c r="B1012" s="7"/>
+      <c r="D1012" s="3"/>
+    </row>
+    <row r="1013" spans="1:4">
+      <c r="A1013" s="8"/>
+      <c r="B1013" s="7"/>
+      <c r="D1013" s="3"/>
+    </row>
+    <row r="1014" spans="1:4">
+      <c r="A1014" s="8"/>
+      <c r="B1014" s="7"/>
+      <c r="D1014" s="3"/>
+    </row>
+    <row r="1015" spans="1:4">
+      <c r="A1015" s="8"/>
+      <c r="B1015" s="7"/>
+      <c r="D1015" s="3"/>
+    </row>
+    <row r="1016" spans="1:4">
+      <c r="A1016" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6372,7 +6562,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1009</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1015</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431AAD1E-10A0-4BA9-B9F0-F5BBF61976C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC94E08-4F33-4334-9C7D-43D016CAE5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>WS Dokumentation</t>
+  </si>
+  <si>
+    <t>Game Start Conditions</t>
+  </si>
+  <si>
+    <t>Game Start Conditions Fix</t>
+  </si>
+  <si>
+    <t>Multiple Sessions Fix (Auth)</t>
+  </si>
+  <si>
+    <t>Abstimmung Ticketverteilung</t>
   </si>
 </sst>
 </file>
@@ -708,13 +720,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:E1016"/>
+  <dimension ref="A1:E1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1850,29 +1862,76 @@
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="8"/>
-      <c r="B76" s="7"/>
-      <c r="D76" s="3"/>
+      <c r="A76" s="8">
+        <v>44347</v>
+      </c>
+      <c r="B76" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="8"/>
-      <c r="B77" s="7"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="8">
+        <v>44349</v>
+      </c>
+      <c r="B77" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="8"/>
-      <c r="B78" s="7"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="8">
+        <v>44350</v>
+      </c>
+      <c r="B78" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="8"/>
-      <c r="B79" s="7"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="8">
+        <v>44351</v>
+      </c>
+      <c r="B79" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="8"/>
-      <c r="B80" s="7"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="8">
+        <v>44351</v>
+      </c>
+      <c r="B80" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="8"/>
@@ -6550,7 +6609,17 @@
       <c r="D1015" s="3"/>
     </row>
     <row r="1016" spans="1:4">
-      <c r="A1016" s="2"/>
+      <c r="A1016" s="8"/>
+      <c r="B1016" s="7"/>
+      <c r="D1016" s="3"/>
+    </row>
+    <row r="1017" spans="1:4">
+      <c r="A1017" s="8"/>
+      <c r="B1017" s="7"/>
+      <c r="D1017" s="3"/>
+    </row>
+    <row r="1018" spans="1:4">
+      <c r="A1018" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6562,7 +6631,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1015</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1017</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC94E08-4F33-4334-9C7D-43D016CAE5FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9251F0CF-CCF0-441F-AF91-58DDF4395F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>Datum</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>Abstimmung Ticketverteilung</t>
+  </si>
+  <si>
+    <t>Abstimmung Ticketverteilung / Status</t>
+  </si>
+  <si>
+    <t>Abstimmung Islam (Frontend Bug)</t>
+  </si>
+  <si>
+    <t>Rule Validation</t>
+  </si>
+  <si>
+    <t>Actors  / Use Cases Update</t>
+  </si>
+  <si>
+    <t>Review Merge Requests</t>
+  </si>
+  <si>
+    <t>Use Cases Update / Class Diagram</t>
   </si>
 </sst>
 </file>
@@ -723,10 +741,10 @@
   <dimension ref="A1:E1018"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1934,34 +1952,88 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="7"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="8">
+        <v>44354</v>
+      </c>
+      <c r="B81" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="7"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B82" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="8"/>
-      <c r="B83" s="7"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8"/>
-      <c r="B84" s="7"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="8">
+        <v>44357</v>
+      </c>
+      <c r="B84" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="8"/>
-      <c r="B85" s="7"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="8"/>
-      <c r="B86" s="7"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B86" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="8"/>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9251F0CF-CCF0-441F-AF91-58DDF4395F61}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA28E9A-36D7-443A-925B-AFC7ACF3B4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
   <si>
     <t>Datum</t>
   </si>
@@ -261,9 +261,6 @@
     <t>Debugging</t>
   </si>
   <si>
-    <t>Git Release / Finale Abstimmung</t>
-  </si>
-  <si>
     <t>Fix Unittests</t>
   </si>
   <si>
@@ -313,6 +310,21 @@
   </si>
   <si>
     <t>Use Cases Update / Class Diagram</t>
+  </si>
+  <si>
+    <t>Abstimmung weitere Vorgehensweise</t>
+  </si>
+  <si>
+    <t>Abstimmung Game / Team Fix</t>
+  </si>
+  <si>
+    <t>Class Descriptions / Software Architecture</t>
+  </si>
+  <si>
+    <t>Software Architecture / component diagram / gui prototype</t>
+  </si>
+  <si>
+    <t>Finale Abstimmung</t>
   </si>
 </sst>
 </file>
@@ -738,13 +750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:E1018"/>
+  <dimension ref="A1:E1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1155,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="15"/>
     </row>
@@ -1215,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="15"/>
     </row>
@@ -1410,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="15"/>
     </row>
@@ -1785,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="15"/>
     </row>
@@ -1800,7 +1812,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E70" s="15"/>
     </row>
@@ -1815,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E71" s="15"/>
     </row>
@@ -1830,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E72" s="15"/>
     </row>
@@ -1845,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E73" s="15"/>
     </row>
@@ -1860,7 +1872,7 @@
         <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E74" s="15"/>
     </row>
@@ -1875,66 +1887,67 @@
         <v>14</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8">
-        <v>44347</v>
+        <v>44346</v>
       </c>
       <c r="B76" s="7">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E76" s="15"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="8">
-        <v>44349</v>
+        <v>44347</v>
       </c>
       <c r="B77" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="E77" s="15"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="8">
-        <v>44350</v>
+        <v>44349</v>
       </c>
       <c r="B78" s="7">
-        <v>8.3333333333333329E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="8">
-        <v>44351</v>
+        <v>44350</v>
       </c>
       <c r="B79" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1942,55 +1955,55 @@
         <v>44351</v>
       </c>
       <c r="B80" s="7">
-        <v>0.125</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="8">
-        <v>44354</v>
+        <v>44351</v>
       </c>
       <c r="B81" s="7">
-        <v>3.125E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="8">
-        <v>44357</v>
+        <v>44353</v>
       </c>
       <c r="B82" s="7">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="8">
-        <v>44357</v>
+        <v>44354</v>
       </c>
       <c r="B83" s="7">
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1998,18 +2011,18 @@
         <v>44357</v>
       </c>
       <c r="B84" s="7">
-        <v>0.125</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="8">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B85" s="7">
         <v>2.0833333333333332E-2</v>
@@ -2018,57 +2031,120 @@
         <v>5</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="8">
-        <v>44358</v>
+        <v>44357</v>
       </c>
       <c r="B86" s="7">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="8">
+        <v>44358</v>
+      </c>
+      <c r="B88" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="8">
+        <v>44359</v>
+      </c>
+      <c r="B89" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="8"/>
-      <c r="B87" s="7"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="8"/>
-      <c r="B88" s="7"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="8"/>
-      <c r="B89" s="7"/>
-      <c r="D89" s="3"/>
-    </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="8"/>
-      <c r="B90" s="7"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="8">
+        <v>44359</v>
+      </c>
+      <c r="B90" s="7">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="8"/>
-      <c r="B91" s="7"/>
-      <c r="D91" s="3"/>
+      <c r="A91" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B91" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="8"/>
-      <c r="B92" s="7"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B92" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="8"/>
-      <c r="B93" s="7"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="8">
+        <v>44360</v>
+      </c>
+      <c r="B93" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="8"/>
@@ -6691,7 +6767,22 @@
       <c r="D1017" s="3"/>
     </row>
     <row r="1018" spans="1:4">
-      <c r="A1018" s="2"/>
+      <c r="A1018" s="8"/>
+      <c r="B1018" s="7"/>
+      <c r="D1018" s="3"/>
+    </row>
+    <row r="1019" spans="1:4">
+      <c r="A1019" s="8"/>
+      <c r="B1019" s="7"/>
+      <c r="D1019" s="3"/>
+    </row>
+    <row r="1020" spans="1:4">
+      <c r="A1020" s="8"/>
+      <c r="B1020" s="7"/>
+      <c r="D1020" s="3"/>
+    </row>
+    <row r="1021" spans="1:4">
+      <c r="A1021" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6703,7 +6794,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10 C13:C17 C19:C1017</xm:sqref>
+          <xm:sqref>C2:C10 C13:C17 C19:C1020</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/documentation/timemanagment/prosser-timemanagment.xlsx
+++ b/documentation/timemanagment/prosser-timemanagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\g6t3\documentation\timemanagment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA28E9A-36D7-443A-925B-AFC7ACF3B4C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBDEB06-00F9-4A04-B8A1-CC6EF2EE4F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenerfassung" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
   <si>
     <t>Datum</t>
   </si>
@@ -325,6 +325,24 @@
   </si>
   <si>
     <t>Finale Abstimmung</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Abschlussbericht</t>
+  </si>
+  <si>
+    <t>Zusammentragen</t>
+  </si>
+  <si>
+    <t>Abschluss Konzept</t>
+  </si>
+  <si>
+    <t>Fix GUI Prototype</t>
+  </si>
+  <si>
+    <t>Nachtrag fehlender Unit Tests</t>
+  </si>
+  <si>
+    <t>Git Release / Abstimmung</t>
   </si>
 </sst>
 </file>
@@ -753,10 +771,10 @@
   <dimension ref="A1:E1021"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D69" sqref="D69"/>
+      <selection pane="bottomRight" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2147,49 +2165,130 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="8"/>
-      <c r="B94" s="7"/>
-      <c r="D94" s="3"/>
+      <c r="A94" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B94" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="8"/>
-      <c r="B95" s="7"/>
-      <c r="D95" s="3"/>
+      <c r="A95" s="8">
+        <v>44361</v>
+      </c>
+      <c r="B95" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="8"/>
-      <c r="B96" s="7"/>
-      <c r="D96" s="3"/>
+      <c r="A96" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B96" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="8"/>
-      <c r="B97" s="7"/>
-      <c r="D97" s="3"/>
+      <c r="A97" s="8">
+        <v>44363</v>
+      </c>
+      <c r="B97" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="8"/>
-      <c r="B98" s="7"/>
-      <c r="D98" s="3"/>
+      <c r="A98" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B98" s="7">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="8"/>
-      <c r="B99" s="7"/>
-      <c r="D99" s="3"/>
+      <c r="A99" s="8">
+        <v>44364</v>
+      </c>
+      <c r="B99" s="7">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="8"/>
-      <c r="B100" s="7"/>
-      <c r="D100" s="3"/>
+      <c r="A100" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B100" s="7">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="8"/>
-      <c r="B101" s="7"/>
-      <c r="D101" s="3"/>
+      <c r="A101" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B101" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="8"/>
-      <c r="B102" s="7"/>
-      <c r="D102" s="3"/>
+      <c r="A102" s="8">
+        <v>44365</v>
+      </c>
+      <c r="B102" s="7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="8"/>
